--- a/similarities/split_global/harmonic_similarity_timestamps_260.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_260.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,322 +484,356 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>['B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:24.380000')]</t>
+          <t>('0:00:24.240000', '0:00:30.960000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+          <t>('0:00:11.400000', '0:00:16.740000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=24.24</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=11.4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'C:maj'], ['C:7', 'F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:44.760000', '0:00:48.460000'), ('0:00:45.960000', '0:00:49.040000')]</t>
+          <t>('0:02:34.020000', '0:02:40.380000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.580000', '0:00:13.220000'), ('0:00:11.260000', '0:00:13.900000')]</t>
+          <t>('0:02:03.220000', '0:02:07.180000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=44.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=45.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=10.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.26']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:14.900000', '0:01:33.840000')]</t>
+          <t>('0:00:00.780000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:00:08.359000', '0:00:13.688000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=8.359</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>jaah_63</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:7', 'F:min', 'G:dim7', 'F:min', 'G:dim7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:12.800000', '0:02:44.960000')]</t>
+          <t>('0:01:19.460000', '0:01:29.810000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:38.120000')]</t>
+          <t>('0:00:19.360000', '0:00:26.580000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=132.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-63#t=79.46</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=19.36</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:16.260000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+          <t>('0:00:13.527000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['D:7', 'G:maj', 'C:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['B:7', 'E', 'A']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:09.920000', '0:00:11.960000'), ('0:01:04.300000', '0:01:14.900000')]</t>
+          <t>('0:01:06.920000', '0:01:24.540000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:28.583470', '0:01:38.974002'), ('0:00:32.367960', '0:00:41.621112')]</t>
+          <t>('0:01:53.140000', '0:01:54.880000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=64.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=66.92</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=32.36796']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=113.14</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.680000', '0:00:07.500000')]</t>
+          <t>('0:00:39.260000', '0:00:42.740000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:06.800000', '0:00:12.660000')]</t>
+          <t>('0:00:10.580000', '0:00:13.220000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=1.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=39.26</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=6.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=10.58</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -807,371 +841,401 @@
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:01.240000', '0:00:09.940000')]</t>
+          <t>('0:02:07.600000', '0:02:12.400000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:41.820000', '0:00:47.891000')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=1.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=41.82']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Db', 'Gb', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F/3', 'Bb', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:00.344657', '0:00:16.004920')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01.150000', '0:00:05.734000')]</t>
+          <t>('0:01:03.461000', '0:01:06.732000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=0.344657</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.461</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['D', 'E', 'A'], ['A', 'D', 'A']]</t>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G/3', 'C:maj'], ['F:maj', 'G', 'C:maj'], ['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['G:7', 'C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:52.680839', '0:00:55.420793'), ('0:00:22.518117', '0:00:27.754217'), ('0:00:03.599751', '0:00:06.705328')]</t>
+          <t>('0:01:37.940000', '0:01:48.300000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:37.019000', '0:02:40.636000'), ('0:00:32.808000', '0:00:36.091000'), ('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:01:24.160000', '0:01:32.420000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=52.680839', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=22.518117', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=97.94</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=84.16</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:54.580000', '0:01:00.600000')]</t>
+          <t>('0:00:14.620000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:06.427052', '0:01:11.593492')]</t>
+          <t>('0:00:13.980000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=54.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-87#t=66.427052']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G/3', 'C:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:44.820000', '0:00:47.280000')]</t>
+          <t>('0:00:00.240000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:37.019000', '0:02:40.636000')]</t>
+          <t>('0:01:03.200000', '0:01:13.120000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=63.2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.866546', '0:00:12.917702')]</t>
+          <t>('0:00:08.540000', '0:00:14.080000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:09.940000'), ('0:00:59.220000', '0:01:06.880000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:02.680000')]</t>
+          <t>('0:04:05.420000', '0:04:23.440000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:17.120000', '0:00:24.900000')]</t>
+          <t>('0:00:18.660000', '0:00:21.840000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=245.42</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=17.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=18.66</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
